--- a/Code/Results/Cases/Case_0_216/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_216/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.09908309618084843</v>
+        <v>0.1092194802715341</v>
       </c>
       <c r="D2">
-        <v>0.04074039725456657</v>
+        <v>0.1199478036574728</v>
       </c>
       <c r="E2">
-        <v>0.120818749538067</v>
+        <v>0.1178313381864697</v>
       </c>
       <c r="F2">
-        <v>1.963178609382297</v>
+        <v>2.323063226037007</v>
       </c>
       <c r="G2">
-        <v>0.000799472612298932</v>
+        <v>0.002547691809639624</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.708787621370718</v>
+        <v>2.175360659233633</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.546286451047649</v>
+        <v>2.965446372802319</v>
       </c>
       <c r="L2">
-        <v>0.207443360692821</v>
+        <v>0.1921021294112393</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7665749169796356</v>
+        <v>1.683160507300052</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.08764105045749204</v>
+        <v>0.1068530955642188</v>
       </c>
       <c r="D3">
-        <v>0.04370282304702755</v>
+        <v>0.1214616737089962</v>
       </c>
       <c r="E3">
-        <v>0.1069788109010759</v>
+        <v>0.1151583143973767</v>
       </c>
       <c r="F3">
-        <v>1.786603798240449</v>
+        <v>2.299663445876291</v>
       </c>
       <c r="G3">
-        <v>0.0008087626938741927</v>
+        <v>0.002553447920325986</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.563266060922615</v>
+        <v>2.158183152063543</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.804452285160551</v>
+        <v>2.785727557391112</v>
       </c>
       <c r="L3">
-        <v>0.183720180816124</v>
+        <v>0.1876275752744618</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8298397658053247</v>
+        <v>1.706726430940291</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08073193927438638</v>
+        <v>0.1054477437219674</v>
       </c>
       <c r="D4">
-        <v>0.04563939812730489</v>
+        <v>0.1224413576291159</v>
       </c>
       <c r="E4">
-        <v>0.09869612186514942</v>
+        <v>0.1135841604944439</v>
       </c>
       <c r="F4">
-        <v>1.683489933157986</v>
+        <v>2.286878310438993</v>
       </c>
       <c r="G4">
-        <v>0.0008146060654960512</v>
+        <v>0.002557165638417856</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.478491943484357</v>
+        <v>2.149060192161443</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.356722166352768</v>
+        <v>2.676977010506391</v>
       </c>
       <c r="L4">
-        <v>0.1695853816208981</v>
+        <v>0.1850014338679529</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8703394523021863</v>
+        <v>1.721881643665386</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07794225474231098</v>
+        <v>0.1048870325352169</v>
       </c>
       <c r="D5">
-        <v>0.04645627257526996</v>
+        <v>0.1228531700957625</v>
       </c>
       <c r="E5">
-        <v>0.09536877836276503</v>
+        <v>0.1129594901215789</v>
       </c>
       <c r="F5">
-        <v>1.642670602615837</v>
+        <v>2.282064090891097</v>
       </c>
       <c r="G5">
-        <v>0.0008170243825918348</v>
+        <v>0.002558726932609514</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.444983689662351</v>
+        <v>2.145698892959103</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.175946994778769</v>
+        <v>2.633059511302804</v>
       </c>
       <c r="L5">
-        <v>0.1639214435043925</v>
+        <v>0.183961587352627</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8872415086272891</v>
+        <v>1.728229614403321</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07748049590507833</v>
+        <v>0.1047946507385689</v>
       </c>
       <c r="D6">
-        <v>0.04659353628183815</v>
+        <v>0.1229223103715498</v>
       </c>
       <c r="E6">
-        <v>0.0948190000941338</v>
+        <v>0.1128567776189087</v>
       </c>
       <c r="F6">
-        <v>1.635961417807863</v>
+        <v>2.281288539843771</v>
       </c>
       <c r="G6">
-        <v>0.000817428240440683</v>
+        <v>0.002558988985378389</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.439479247560996</v>
+        <v>2.145162226443318</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.146023297789725</v>
+        <v>2.625791085590379</v>
       </c>
       <c r="L6">
-        <v>0.1629864158180467</v>
+        <v>0.1837907486356798</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8900716327282421</v>
+        <v>1.729294075460838</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08069421630862905</v>
+        <v>0.1054401332526851</v>
       </c>
       <c r="D7">
-        <v>0.04565030493619737</v>
+        <v>0.122446860567651</v>
       </c>
       <c r="E7">
-        <v>0.09865106186328987</v>
+        <v>0.113575667986467</v>
       </c>
       <c r="F7">
-        <v>1.68293473632373</v>
+        <v>2.28681178428009</v>
       </c>
       <c r="G7">
-        <v>0.0008146385269360814</v>
+        <v>0.002557186507175248</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.478035978889025</v>
+        <v>2.149013419822651</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.354277715051069</v>
+        <v>2.676383110528832</v>
       </c>
       <c r="L7">
-        <v>0.1695086221380748</v>
+        <v>0.1849872875504843</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8705658099712164</v>
+        <v>1.721966558230655</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09511156554087563</v>
+        <v>0.1083936707052686</v>
       </c>
       <c r="D8">
-        <v>0.04173623100531998</v>
+        <v>0.1204593568168733</v>
       </c>
       <c r="E8">
-        <v>0.1159981985760901</v>
+        <v>0.1168957160322712</v>
       </c>
       <c r="F8">
-        <v>1.901110611674923</v>
+        <v>2.314665273467725</v>
       </c>
       <c r="G8">
-        <v>0.0008026482518337715</v>
+        <v>0.00254963854259127</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.657590505756303</v>
+        <v>2.169141230402332</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.288719195545411</v>
+        <v>2.903146184406467</v>
       </c>
       <c r="L8">
-        <v>0.199166274380147</v>
+        <v>0.1905340366506181</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7880337925429686</v>
+        <v>1.691143546854436</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1244810631200863</v>
+        <v>0.1145635357669761</v>
       </c>
       <c r="D9">
-        <v>0.03509095712342614</v>
+        <v>0.11696119741217</v>
       </c>
       <c r="E9">
-        <v>0.1520353280869386</v>
+        <v>0.123941970925145</v>
       </c>
       <c r="F9">
-        <v>2.377780591862191</v>
+        <v>2.381942618816609</v>
       </c>
       <c r="G9">
-        <v>0.0007801349282288898</v>
+        <v>0.002536284982668457</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.051730130259244</v>
+        <v>2.219994697724019</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.19657641606932</v>
+        <v>3.360643847489598</v>
       </c>
       <c r="L9">
-        <v>0.2613740452820252</v>
+        <v>0.2023815091552308</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6402275324594555</v>
+        <v>1.636153036063742</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1470044181906758</v>
+        <v>0.1193278900634027</v>
       </c>
       <c r="D10">
-        <v>0.03099459696531071</v>
+        <v>0.1146363081512227</v>
       </c>
       <c r="E10">
-        <v>0.1802407293880037</v>
+        <v>0.1294507427361538</v>
       </c>
       <c r="F10">
-        <v>2.768473668639075</v>
+        <v>2.439236755446984</v>
       </c>
       <c r="G10">
-        <v>0.0007640376610148587</v>
+        <v>0.00252734623243504</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.376023066741325</v>
+        <v>2.264419693497402</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.66634735419342</v>
+        <v>3.704815571174947</v>
       </c>
       <c r="L10">
-        <v>0.310544856086608</v>
+        <v>0.2116900613961263</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5416348637631199</v>
+        <v>1.599092712011704</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1575290614531468</v>
+        <v>0.1215458184955622</v>
       </c>
       <c r="D11">
-        <v>0.0293451905097335</v>
+        <v>0.1136322946249528</v>
       </c>
       <c r="E11">
-        <v>0.1935791369009152</v>
+        <v>0.132030118921449</v>
       </c>
       <c r="F11">
-        <v>2.957836439879941</v>
+        <v>2.467042611290054</v>
       </c>
       <c r="G11">
-        <v>0.0007567673083465577</v>
+        <v>0.002523466863089817</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.533499391629434</v>
+        <v>2.286191037646915</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.355612315070118</v>
+        <v>3.863190170111864</v>
       </c>
       <c r="L11">
-        <v>0.3339312172962963</v>
+        <v>0.2160588261383936</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4993389617195216</v>
+        <v>1.582962238286479</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.161561669367785</v>
+        <v>0.1223929767785421</v>
       </c>
       <c r="D12">
-        <v>0.02875584834628597</v>
+        <v>0.1132598440845989</v>
       </c>
       <c r="E12">
-        <v>0.198716011230637</v>
+        <v>0.1330175054783354</v>
       </c>
       <c r="F12">
-        <v>3.031496517613334</v>
+        <v>2.477825125526749</v>
       </c>
       <c r="G12">
-        <v>0.0007540174857262877</v>
+        <v>0.002522024550404834</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.594801153400866</v>
+        <v>2.294662072709329</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.620166004307919</v>
+        <v>3.923426389383508</v>
       </c>
       <c r="L12">
-        <v>0.3429595949032773</v>
+        <v>0.2177326837074816</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4837285795353097</v>
+        <v>1.57695917543467</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1606909535800725</v>
+        <v>0.1222102024148484</v>
       </c>
       <c r="D13">
-        <v>0.02888112585556968</v>
+        <v>0.1133397127248266</v>
       </c>
       <c r="E13">
-        <v>0.1976056454113504</v>
+        <v>0.1328043799773582</v>
       </c>
       <c r="F13">
-        <v>3.015540743757867</v>
+        <v>2.475491624281574</v>
       </c>
       <c r="G13">
-        <v>0.0007546096366133348</v>
+        <v>0.002522333992243807</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.581520314287715</v>
+        <v>2.292827568066258</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.563021920107531</v>
+        <v>3.910441686693218</v>
       </c>
       <c r="L13">
-        <v>0.3410070429460177</v>
+        <v>0.2173713180628738</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4870718055072736</v>
+        <v>1.578247356498677</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1578598371042403</v>
+        <v>0.1216153688678361</v>
       </c>
       <c r="D14">
-        <v>0.02929596993987715</v>
+        <v>0.1136014973802304</v>
       </c>
       <c r="E14">
-        <v>0.1939999477966907</v>
+        <v>0.1321111382639728</v>
       </c>
       <c r="F14">
-        <v>2.96385561145118</v>
+        <v>2.467924609605149</v>
       </c>
       <c r="G14">
-        <v>0.0007565410391972005</v>
+        <v>0.002523347668433097</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.538507784076529</v>
+        <v>2.28688339949143</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.377302676299053</v>
+        <v>3.868140547543419</v>
       </c>
       <c r="L14">
-        <v>0.334670367086602</v>
+        <v>0.216196143443355</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4980463016308683</v>
+        <v>1.582466251780186</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1561320657414171</v>
+        <v>0.121251963860729</v>
       </c>
       <c r="D15">
-        <v>0.0295548113601285</v>
+        <v>0.1137628582522225</v>
       </c>
       <c r="E15">
-        <v>0.1918029589483936</v>
+        <v>0.1316878947124138</v>
       </c>
       <c r="F15">
-        <v>2.932460282621236</v>
+        <v>2.46332262206036</v>
       </c>
       <c r="G15">
-        <v>0.0007577243725746756</v>
+        <v>0.002523972049310813</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.512386387076418</v>
+        <v>2.283272009252826</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.264024342431469</v>
+        <v>3.84226424607408</v>
       </c>
       <c r="L15">
-        <v>0.330812272870773</v>
+        <v>0.2154788605431435</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5048226487595144</v>
+        <v>1.585064160226574</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1463227972020889</v>
+        <v>0.119183961451597</v>
       </c>
       <c r="D16">
-        <v>0.03110706117546869</v>
+        <v>0.1147030046810791</v>
       </c>
       <c r="E16">
-        <v>0.1793803076005958</v>
+        <v>0.1292836581128824</v>
       </c>
       <c r="F16">
-        <v>2.756355414351219</v>
+        <v>2.437454850962581</v>
       </c>
       <c r="G16">
-        <v>0.0007645135021463021</v>
+        <v>0.002527603506140874</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.36595140347012</v>
+        <v>2.263028495401514</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.621765014808147</v>
+        <v>3.694502081445933</v>
       </c>
       <c r="L16">
-        <v>0.3090391294002899</v>
+        <v>0.2114072705406045</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.544453585329947</v>
+        <v>1.600161572675887</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1403812192614708</v>
+        <v>0.1179282688474217</v>
       </c>
       <c r="D17">
-        <v>0.0321170792771639</v>
+        <v>0.115293508916789</v>
       </c>
       <c r="E17">
-        <v>0.1718980193679585</v>
+        <v>0.1278275924167218</v>
       </c>
       <c r="F17">
-        <v>2.651486524244007</v>
+        <v>2.422033847509368</v>
       </c>
       <c r="G17">
-        <v>0.0007686890100740437</v>
+        <v>0.002529879047886084</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.278825636493664</v>
+        <v>2.251011323607301</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.233432169601201</v>
+        <v>3.604320283248512</v>
       </c>
       <c r="L17">
-        <v>0.29596013444025</v>
+        <v>0.2089440061323415</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5694459131928369</v>
+        <v>1.609610234813362</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1369895285080389</v>
+        <v>0.1172107902304731</v>
       </c>
       <c r="D18">
-        <v>0.03271785215254042</v>
+        <v>0.1156381929659673</v>
       </c>
       <c r="E18">
-        <v>0.1676413070450735</v>
+        <v>0.1269970067587423</v>
       </c>
       <c r="F18">
-        <v>2.592244787326791</v>
+        <v>2.413327952937721</v>
       </c>
       <c r="G18">
-        <v>0.0007710958684270702</v>
+        <v>0.002531205481617197</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.229633927378018</v>
+        <v>2.244246279898903</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.011978862237413</v>
+        <v>3.552620197068222</v>
       </c>
       <c r="L18">
-        <v>0.2885315173646035</v>
+        <v>0.2075398266586461</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5840586206530016</v>
+        <v>1.615113393461654</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1358453832965125</v>
+        <v>0.1169686822743898</v>
       </c>
       <c r="D19">
-        <v>0.0329245469019952</v>
+        <v>0.1157557617231895</v>
       </c>
       <c r="E19">
-        <v>0.1662077504796429</v>
+        <v>0.1267169683303848</v>
       </c>
       <c r="F19">
-        <v>2.572363530240608</v>
+        <v>2.410408354707386</v>
       </c>
       <c r="G19">
-        <v>0.000771911804311307</v>
+        <v>0.002531657617707268</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.213129934290393</v>
+        <v>2.241980923064361</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.937309763518158</v>
+        <v>3.535144559660125</v>
       </c>
       <c r="L19">
-        <v>0.2860317426665944</v>
+        <v>0.2070665581023263</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.589045984105562</v>
+        <v>1.616988426466856</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1410109975754636</v>
+        <v>0.1180614465616401</v>
       </c>
       <c r="D20">
-        <v>0.0320074781621642</v>
+        <v>0.1152301266470062</v>
       </c>
       <c r="E20">
-        <v>0.1726895801838353</v>
+        <v>0.127981877923844</v>
       </c>
       <c r="F20">
-        <v>2.662536736720142</v>
+        <v>2.423658463092664</v>
       </c>
       <c r="G20">
-        <v>0.0007682440088678731</v>
+        <v>0.00252963499186802</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.288003425098182</v>
+        <v>2.252275352049551</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.274569777263423</v>
+        <v>3.613902663283341</v>
       </c>
       <c r="L20">
-        <v>0.2973425033524109</v>
+        <v>0.2092049167875132</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5667605654719559</v>
+        <v>1.608597311970222</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1586900631171915</v>
+        <v>0.1217898883935931</v>
       </c>
       <c r="D21">
-        <v>0.0291731237393158</v>
+        <v>0.1135243942786204</v>
       </c>
       <c r="E21">
-        <v>0.195056584179234</v>
+        <v>0.132314470967259</v>
       </c>
       <c r="F21">
-        <v>2.978981353202471</v>
+        <v>2.470140337878206</v>
       </c>
       <c r="G21">
-        <v>0.0007559736866215034</v>
+        <v>0.002523049203218536</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.551094235457953</v>
+        <v>2.288623176752665</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.431751722969807</v>
+        <v>3.880558249757883</v>
       </c>
       <c r="L21">
-        <v>0.3365266937749851</v>
+        <v>0.2165407898856415</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.494811462770663</v>
+        <v>1.581224201319809</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1705233034704463</v>
+        <v>0.1242690574948568</v>
       </c>
       <c r="D22">
-        <v>0.02752888583250979</v>
+        <v>0.1124547784317294</v>
       </c>
       <c r="E22">
-        <v>0.2101829714570087</v>
+        <v>0.1352080840333798</v>
       </c>
       <c r="F22">
-        <v>3.197339733790358</v>
+        <v>2.501995018793565</v>
       </c>
       <c r="G22">
-        <v>0.0007479711181613714</v>
+        <v>0.002518900684123534</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.732905399924775</v>
+        <v>2.31370093979811</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.20902824623693</v>
+        <v>4.056368673492045</v>
       </c>
       <c r="L22">
-        <v>0.3631563047108983</v>
+        <v>0.2214489681780805</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4501786953531877</v>
+        <v>1.563947678034959</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1641795260361931</v>
+        <v>0.1229419965298035</v>
       </c>
       <c r="D23">
-        <v>0.0283856985808697</v>
+        <v>0.1130215047186702</v>
       </c>
       <c r="E23">
-        <v>0.2020584189515304</v>
+        <v>0.1336580081834242</v>
       </c>
       <c r="F23">
-        <v>3.079637363903458</v>
+        <v>2.48485768546675</v>
       </c>
       <c r="G23">
-        <v>0.0007522422743117184</v>
+        <v>0.002521100634674264</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.634878039069491</v>
+        <v>2.300194780635792</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.792046764506949</v>
+        <v>3.962393807042815</v>
       </c>
       <c r="L23">
-        <v>0.3488404955952262</v>
+        <v>0.2188189064070656</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.473766834841765</v>
+        <v>1.573112208072745</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1407261999377312</v>
+        <v>0.1180012231001371</v>
       </c>
       <c r="D24">
-        <v>0.03205696654687173</v>
+        <v>0.1152587655919355</v>
       </c>
       <c r="E24">
-        <v>0.1723315764628097</v>
+        <v>0.1279121051250343</v>
       </c>
       <c r="F24">
-        <v>2.657537689475788</v>
+        <v>2.422923476690499</v>
       </c>
       <c r="G24">
-        <v>0.0007684451741234444</v>
+        <v>0.002529745272861377</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.283851367091614</v>
+        <v>2.251703437077211</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.255965886601246</v>
+        <v>3.609570012775237</v>
       </c>
       <c r="L24">
-        <v>0.2967172538577216</v>
+        <v>0.2090869217671099</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5679738531448013</v>
+        <v>1.60905503328175</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1163919134585853</v>
+        <v>0.1128538671830057</v>
       </c>
       <c r="D25">
-        <v>0.03676357579198708</v>
+        <v>0.1178646123491216</v>
       </c>
       <c r="E25">
-        <v>0.1420226067663535</v>
+        <v>0.1219778820073891</v>
       </c>
       <c r="F25">
-        <v>2.242578625532801</v>
+        <v>2.362371994016996</v>
       </c>
       <c r="G25">
-        <v>0.0007861342854102592</v>
+        <v>0.002539743557945462</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.939737376520981</v>
+        <v>2.205006205943661</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.670268195685253</v>
+        <v>3.235482562891775</v>
       </c>
       <c r="L25">
-        <v>0.2440164794591198</v>
+        <v>0.199071277086361</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6785730947536894</v>
+        <v>1.650443924827199</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_216/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_216/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1092194802715341</v>
+        <v>0.09908309618104738</v>
       </c>
       <c r="D2">
-        <v>0.1199478036574728</v>
+        <v>0.04074039725455947</v>
       </c>
       <c r="E2">
-        <v>0.1178313381864697</v>
+        <v>0.1208187495380635</v>
       </c>
       <c r="F2">
-        <v>2.323063226037007</v>
+        <v>1.963178609382283</v>
       </c>
       <c r="G2">
-        <v>0.002547691809639624</v>
+        <v>0.0007994726122473522</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.175360659233633</v>
+        <v>1.708787621370718</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.965446372802319</v>
+        <v>5.546286451047592</v>
       </c>
       <c r="L2">
-        <v>0.1921021294112393</v>
+        <v>0.2074433606928636</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.683160507300052</v>
+        <v>0.7665749169795717</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1068530955642188</v>
+        <v>0.08764105045770521</v>
       </c>
       <c r="D3">
-        <v>0.1214616737089962</v>
+        <v>0.04370282304714124</v>
       </c>
       <c r="E3">
-        <v>0.1151583143973767</v>
+        <v>0.1069788109010723</v>
       </c>
       <c r="F3">
-        <v>2.299663445876291</v>
+        <v>1.786603798240449</v>
       </c>
       <c r="G3">
-        <v>0.002553447920325986</v>
+        <v>0.0008087626939707563</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.158183152063543</v>
+        <v>1.563266060922601</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.785727557391112</v>
+        <v>4.804452285160664</v>
       </c>
       <c r="L3">
-        <v>0.1876275752744618</v>
+        <v>0.1837201808160813</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.706726430940291</v>
+        <v>0.8298397658053229</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1054477437219674</v>
+        <v>0.08073193927427269</v>
       </c>
       <c r="D4">
-        <v>0.1224413576291159</v>
+        <v>0.04563939812721962</v>
       </c>
       <c r="E4">
-        <v>0.1135841604944439</v>
+        <v>0.09869612186516719</v>
       </c>
       <c r="F4">
-        <v>2.286878310438993</v>
+        <v>1.683489933157986</v>
       </c>
       <c r="G4">
-        <v>0.002557165638417856</v>
+        <v>0.0008146060654962141</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.149060192161443</v>
+        <v>1.478491943484372</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.676977010506391</v>
+        <v>4.356722166352768</v>
       </c>
       <c r="L4">
-        <v>0.1850014338679529</v>
+        <v>0.1695853816209123</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.721881643665386</v>
+        <v>0.8703394523021402</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1048870325352169</v>
+        <v>0.07794225474249572</v>
       </c>
       <c r="D5">
-        <v>0.1228531700957625</v>
+        <v>0.0464562725752895</v>
       </c>
       <c r="E5">
-        <v>0.1129594901215789</v>
+        <v>0.09536877836276858</v>
       </c>
       <c r="F5">
-        <v>2.282064090891097</v>
+        <v>1.642670602615837</v>
       </c>
       <c r="G5">
-        <v>0.002558726932609514</v>
+        <v>0.0008170243825646083</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.145698892959103</v>
+        <v>1.444983689662322</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.633059511302804</v>
+        <v>4.175946994778883</v>
       </c>
       <c r="L5">
-        <v>0.183961587352627</v>
+        <v>0.1639214435043499</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.728229614403321</v>
+        <v>0.8872415086272465</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1047946507385689</v>
+        <v>0.07748049590496464</v>
       </c>
       <c r="D6">
-        <v>0.1229223103715498</v>
+        <v>0.04659353628184171</v>
       </c>
       <c r="E6">
-        <v>0.1128567776189087</v>
+        <v>0.0948190000941409</v>
       </c>
       <c r="F6">
-        <v>2.281288539843771</v>
+        <v>1.635961417807849</v>
       </c>
       <c r="G6">
-        <v>0.002558988985378389</v>
+        <v>0.0008174282404114264</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.145162226443318</v>
+        <v>1.439479247560982</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.625791085590379</v>
+        <v>4.146023297789725</v>
       </c>
       <c r="L6">
-        <v>0.1837907486356798</v>
+        <v>0.1629864158182102</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.729294075460838</v>
+        <v>0.8900716327281959</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1054401332526851</v>
+        <v>0.08069421630862905</v>
       </c>
       <c r="D7">
-        <v>0.122446860567651</v>
+        <v>0.04565030493633593</v>
       </c>
       <c r="E7">
-        <v>0.113575667986467</v>
+        <v>0.09865106186328276</v>
       </c>
       <c r="F7">
-        <v>2.28681178428009</v>
+        <v>1.68293473632373</v>
       </c>
       <c r="G7">
-        <v>0.002557186507175248</v>
+        <v>0.0008146385269194492</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.149013419822651</v>
+        <v>1.478035978888997</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.676383110528832</v>
+        <v>4.354277715051012</v>
       </c>
       <c r="L7">
-        <v>0.1849872875504843</v>
+        <v>0.1695086221380251</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.721966558230655</v>
+        <v>0.8705658099712679</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1083936707052686</v>
+        <v>0.09511156554086142</v>
       </c>
       <c r="D8">
-        <v>0.1204593568168733</v>
+        <v>0.0417362310055136</v>
       </c>
       <c r="E8">
-        <v>0.1168957160322712</v>
+        <v>0.1159981985760865</v>
       </c>
       <c r="F8">
-        <v>2.314665273467725</v>
+        <v>1.901110611674923</v>
       </c>
       <c r="G8">
-        <v>0.00254963854259127</v>
+        <v>0.00080264825183303</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.169141230402332</v>
+        <v>1.657590505756303</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.903146184406467</v>
+        <v>5.288719195545355</v>
       </c>
       <c r="L8">
-        <v>0.1905340366506181</v>
+        <v>0.1991662743802038</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.691143546854436</v>
+        <v>0.7880337925429544</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1145635357669761</v>
+        <v>0.1244810631203421</v>
       </c>
       <c r="D9">
-        <v>0.11696119741217</v>
+        <v>0.03509095712365706</v>
       </c>
       <c r="E9">
-        <v>0.123941970925145</v>
+        <v>0.1520353280869102</v>
       </c>
       <c r="F9">
-        <v>2.381942618816609</v>
+        <v>2.377780591862177</v>
       </c>
       <c r="G9">
-        <v>0.002536284982668457</v>
+        <v>0.0007801349282298142</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.219994697724019</v>
+        <v>2.051730130259259</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.360643847489598</v>
+        <v>7.19657641606932</v>
       </c>
       <c r="L9">
-        <v>0.2023815091552308</v>
+        <v>0.2613740452820963</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.636153036063742</v>
+        <v>0.6402275324594591</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1193278900634027</v>
+        <v>0.1470044181901784</v>
       </c>
       <c r="D10">
-        <v>0.1146363081512227</v>
+        <v>0.0309945969654386</v>
       </c>
       <c r="E10">
-        <v>0.1294507427361538</v>
+        <v>0.1802407293880108</v>
       </c>
       <c r="F10">
-        <v>2.439236755446984</v>
+        <v>2.768473668639075</v>
       </c>
       <c r="G10">
-        <v>0.00252734623243504</v>
+        <v>0.0007640376610715345</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.264419693497402</v>
+        <v>2.376023066741311</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.704815571174947</v>
+        <v>8.666347354193476</v>
       </c>
       <c r="L10">
-        <v>0.2116900613961263</v>
+        <v>0.3105448560866364</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.599092712011704</v>
+        <v>0.5416348637631234</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1215458184955622</v>
+        <v>0.157529061452891</v>
       </c>
       <c r="D11">
-        <v>0.1136322946249528</v>
+        <v>0.02934519050973705</v>
       </c>
       <c r="E11">
-        <v>0.132030118921449</v>
+        <v>0.1935791369009578</v>
       </c>
       <c r="F11">
-        <v>2.467042611290054</v>
+        <v>2.957836439879941</v>
       </c>
       <c r="G11">
-        <v>0.002523466863089817</v>
+        <v>0.0007567673084143705</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.286191037646915</v>
+        <v>2.533499391629448</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.863190170111864</v>
+        <v>9.355612315070061</v>
       </c>
       <c r="L11">
-        <v>0.2160588261383936</v>
+        <v>0.3339312172962963</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.582962238286479</v>
+        <v>0.4993389617194595</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1223929767785421</v>
+        <v>0.1615616693675292</v>
       </c>
       <c r="D12">
-        <v>0.1132598440845989</v>
+        <v>0.02875584834639966</v>
       </c>
       <c r="E12">
-        <v>0.1330175054783354</v>
+        <v>0.1987160112306228</v>
       </c>
       <c r="F12">
-        <v>2.477825125526749</v>
+        <v>3.031496517613334</v>
       </c>
       <c r="G12">
-        <v>0.002522024550404834</v>
+        <v>0.0007540174857326187</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.294662072709329</v>
+        <v>2.594801153400866</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.923426389383508</v>
+        <v>9.620166004307919</v>
       </c>
       <c r="L12">
-        <v>0.2177326837074816</v>
+        <v>0.3429595949031921</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.57695917543467</v>
+        <v>0.4837285795353061</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1222102024148484</v>
+        <v>0.1606909535796319</v>
       </c>
       <c r="D13">
-        <v>0.1133397127248266</v>
+        <v>0.02888112585543823</v>
       </c>
       <c r="E13">
-        <v>0.1328043799773582</v>
+        <v>0.1976056454113504</v>
       </c>
       <c r="F13">
-        <v>2.475491624281574</v>
+        <v>3.015540743757896</v>
       </c>
       <c r="G13">
-        <v>0.002522333992243807</v>
+        <v>0.0007546096365539069</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.292827568066258</v>
+        <v>2.581520314287729</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.910441686693218</v>
+        <v>9.563021920107644</v>
       </c>
       <c r="L13">
-        <v>0.2173713180628738</v>
+        <v>0.3410070429458187</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.578247356498677</v>
+        <v>0.4870718055072487</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1216153688678361</v>
+        <v>0.1578598371039845</v>
       </c>
       <c r="D14">
-        <v>0.1136014973802304</v>
+        <v>0.02929596993987005</v>
       </c>
       <c r="E14">
-        <v>0.1321111382639728</v>
+        <v>0.1939999477967689</v>
       </c>
       <c r="F14">
-        <v>2.467924609605149</v>
+        <v>2.963855611451208</v>
       </c>
       <c r="G14">
-        <v>0.002523347668433097</v>
+        <v>0.0007565410391348976</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.28688339949143</v>
+        <v>2.538507784076543</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.868140547543419</v>
+        <v>9.377302676299166</v>
       </c>
       <c r="L14">
-        <v>0.216196143443355</v>
+        <v>0.3346703670865878</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.582466251780186</v>
+        <v>0.4980463016309269</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.121251963860729</v>
+        <v>0.1561320657416729</v>
       </c>
       <c r="D15">
-        <v>0.1137628582522225</v>
+        <v>0.02955481136002547</v>
       </c>
       <c r="E15">
-        <v>0.1316878947124138</v>
+        <v>0.1918029589484362</v>
       </c>
       <c r="F15">
-        <v>2.46332262206036</v>
+        <v>2.932460282621264</v>
       </c>
       <c r="G15">
-        <v>0.002523972049310813</v>
+        <v>0.0007577243725767994</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.283272009252826</v>
+        <v>2.512386387076418</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.84226424607408</v>
+        <v>9.264024342431412</v>
       </c>
       <c r="L15">
-        <v>0.2154788605431435</v>
+        <v>0.3308122728708156</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.585064160226574</v>
+        <v>0.5048226487595269</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.119183961451597</v>
+        <v>0.1463227972020889</v>
       </c>
       <c r="D16">
-        <v>0.1147030046810791</v>
+        <v>0.03110706117557882</v>
       </c>
       <c r="E16">
-        <v>0.1292836581128824</v>
+        <v>0.1793803076006242</v>
       </c>
       <c r="F16">
-        <v>2.437454850962581</v>
+        <v>2.756355414351219</v>
       </c>
       <c r="G16">
-        <v>0.002527603506140874</v>
+        <v>0.0007645135022066318</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.263028495401514</v>
+        <v>2.365951403470106</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.694502081445933</v>
+        <v>8.621765014808091</v>
       </c>
       <c r="L16">
-        <v>0.2114072705406045</v>
+        <v>0.309039129400162</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.600161572675887</v>
+        <v>0.5444535853300074</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1179282688474217</v>
+        <v>0.1403812192612577</v>
       </c>
       <c r="D17">
-        <v>0.115293508916789</v>
+        <v>0.03211707927717455</v>
       </c>
       <c r="E17">
-        <v>0.1278275924167218</v>
+        <v>0.1718980193679513</v>
       </c>
       <c r="F17">
-        <v>2.422033847509368</v>
+        <v>2.651486524244007</v>
       </c>
       <c r="G17">
-        <v>0.002529879047886084</v>
+        <v>0.0007686890101340538</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.251011323607301</v>
+        <v>2.278825636493664</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.604320283248512</v>
+        <v>8.233432169601144</v>
       </c>
       <c r="L17">
-        <v>0.2089440061323415</v>
+        <v>0.2959601344402785</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.609610234813362</v>
+        <v>0.5694459131928493</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1172107902304731</v>
+        <v>0.1369895285078258</v>
       </c>
       <c r="D18">
-        <v>0.1156381929659673</v>
+        <v>0.03271785215254752</v>
       </c>
       <c r="E18">
-        <v>0.1269970067587423</v>
+        <v>0.1676413070451162</v>
       </c>
       <c r="F18">
-        <v>2.413327952937721</v>
+        <v>2.592244787326791</v>
       </c>
       <c r="G18">
-        <v>0.002531205481617197</v>
+        <v>0.0007710958684869978</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.244246279898903</v>
+        <v>2.229633927378018</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.552620197068222</v>
+        <v>8.01197886223747</v>
       </c>
       <c r="L18">
-        <v>0.2075398266586461</v>
+        <v>0.2885315173644898</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.615113393461654</v>
+        <v>0.5840586206530176</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1169686822743898</v>
+        <v>0.1358453832967115</v>
       </c>
       <c r="D19">
-        <v>0.1157557617231895</v>
+        <v>0.03292454690198809</v>
       </c>
       <c r="E19">
-        <v>0.1267169683303848</v>
+        <v>0.1662077504796144</v>
       </c>
       <c r="F19">
-        <v>2.410408354707386</v>
+        <v>2.572363530240608</v>
       </c>
       <c r="G19">
-        <v>0.002531657617707268</v>
+        <v>0.0007719118043117613</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.241980923064361</v>
+        <v>2.213129934290393</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.535144559660125</v>
+        <v>7.937309763518101</v>
       </c>
       <c r="L19">
-        <v>0.2070665581023263</v>
+        <v>0.2860317426665802</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.616988426466856</v>
+        <v>0.5890459841054998</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1180614465616401</v>
+        <v>0.1410109975754494</v>
       </c>
       <c r="D20">
-        <v>0.1152301266470062</v>
+        <v>0.03200747816204697</v>
       </c>
       <c r="E20">
-        <v>0.127981877923844</v>
+        <v>0.1726895801838282</v>
       </c>
       <c r="F20">
-        <v>2.423658463092664</v>
+        <v>2.662536736720114</v>
       </c>
       <c r="G20">
-        <v>0.00252963499186802</v>
+        <v>0.0007682440088718249</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.252275352049551</v>
+        <v>2.288003425098168</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.613902663283341</v>
+        <v>8.274569777263366</v>
       </c>
       <c r="L20">
-        <v>0.2092049167875132</v>
+        <v>0.2973425033524393</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.608597311970222</v>
+        <v>0.5667605654719559</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1217898883935931</v>
+        <v>0.1586900631167083</v>
       </c>
       <c r="D21">
-        <v>0.1135243942786204</v>
+        <v>0.02917312373919145</v>
       </c>
       <c r="E21">
-        <v>0.132314470967259</v>
+        <v>0.195056584179234</v>
       </c>
       <c r="F21">
-        <v>2.470140337878206</v>
+        <v>2.978981353202471</v>
       </c>
       <c r="G21">
-        <v>0.002523049203218536</v>
+        <v>0.0007559736866160051</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.288623176752665</v>
+        <v>2.551094235457924</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.880558249757883</v>
+        <v>9.43175172296975</v>
       </c>
       <c r="L21">
-        <v>0.2165407898856415</v>
+        <v>0.3365266937748572</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.581224201319809</v>
+        <v>0.4948114627706683</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1242690574948568</v>
+        <v>0.1705233034701337</v>
       </c>
       <c r="D22">
-        <v>0.1124547784317294</v>
+        <v>0.02752888583251689</v>
       </c>
       <c r="E22">
-        <v>0.1352080840333798</v>
+        <v>0.2101829714569661</v>
       </c>
       <c r="F22">
-        <v>2.501995018793565</v>
+        <v>3.197339733790358</v>
       </c>
       <c r="G22">
-        <v>0.002518900684123534</v>
+        <v>0.0007479711180975335</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.31370093979811</v>
+        <v>2.732905399924761</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.056368673492045</v>
+        <v>10.20902824623681</v>
       </c>
       <c r="L22">
-        <v>0.2214489681780805</v>
+        <v>0.363156304711012</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.563947678034959</v>
+        <v>0.4501786953531948</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1229419965298035</v>
+        <v>0.16417952603598</v>
       </c>
       <c r="D23">
-        <v>0.1130215047186702</v>
+        <v>0.02838569858076667</v>
       </c>
       <c r="E23">
-        <v>0.1336580081834242</v>
+        <v>0.202058418951502</v>
       </c>
       <c r="F23">
-        <v>2.48485768546675</v>
+        <v>3.079637363903487</v>
       </c>
       <c r="G23">
-        <v>0.002521100634674264</v>
+        <v>0.0007522422742492579</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.300194780635792</v>
+        <v>2.634878039069491</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.962393807042815</v>
+        <v>9.792046764507063</v>
       </c>
       <c r="L23">
-        <v>0.2188189064070656</v>
+        <v>0.3488404955950983</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.573112208072745</v>
+        <v>0.4737668348417081</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1180012231001371</v>
+        <v>0.1407261999375038</v>
       </c>
       <c r="D24">
-        <v>0.1152587655919355</v>
+        <v>0.03205696654697121</v>
       </c>
       <c r="E24">
-        <v>0.1279121051250343</v>
+        <v>0.1723315764627742</v>
       </c>
       <c r="F24">
-        <v>2.422923476690499</v>
+        <v>2.657537689475788</v>
       </c>
       <c r="G24">
-        <v>0.002529745272861377</v>
+        <v>0.0007684451739454751</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.251703437077211</v>
+        <v>2.283851367091614</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.609570012775237</v>
+        <v>8.255965886601302</v>
       </c>
       <c r="L24">
-        <v>0.2090869217671099</v>
+        <v>0.296717253857679</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.60905503328175</v>
+        <v>0.5679738531447303</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1128538671830057</v>
+        <v>0.1163919134588127</v>
       </c>
       <c r="D25">
-        <v>0.1178646123491216</v>
+        <v>0.03676357579197642</v>
       </c>
       <c r="E25">
-        <v>0.1219778820073891</v>
+        <v>0.1420226067664032</v>
       </c>
       <c r="F25">
-        <v>2.362371994016996</v>
+        <v>2.242578625532786</v>
       </c>
       <c r="G25">
-        <v>0.002539743557945462</v>
+        <v>0.0007861342854093012</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.205006205943661</v>
+        <v>1.939737376520966</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.235482562891775</v>
+        <v>6.670268195685253</v>
       </c>
       <c r="L25">
-        <v>0.199071277086361</v>
+        <v>0.2440164794591624</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.650443924827199</v>
+        <v>0.6785730947536557</v>
       </c>
       <c r="O25">
         <v>0</v>
